--- a/artificial_pancreas/db/diets/highCHO.xlsx
+++ b/artificial_pancreas/db/diets/highCHO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brooklyn/Documents/GITHUB/FIST_AP/APS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brooklyn/Documents/GITHUB/APS/APS/artificial_pancreas/db/diets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3B0122-D516-CC42-9BFE-53AC4CE05805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DFB441-E0B9-F040-A040-64CE0E8AA745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15360" xr2:uid="{4B5383E1-92E3-4F49-82E4-F541FD6A9B93}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Day</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>1,8</t>
-  </si>
-  <si>
-    <t>Insulin</t>
   </si>
   <si>
     <t>Carbs</t>
@@ -66,25 +63,25 @@
     <t>BGL</t>
   </si>
   <si>
-    <t>CHO_TOTAL</t>
+    <t>INSULIN</t>
   </si>
   <si>
-    <t>INSULIN_TOTAL</t>
+    <t>AVG</t>
   </si>
   <si>
-    <t>BGL_GROW_APPROX</t>
+    <t>SD</t>
   </si>
   <si>
-    <t>BGL_NORM_72_180</t>
+    <t>GMI</t>
   </si>
   <si>
-    <t>BGL_NORM_100_120</t>
+    <t>TIR_HIGH</t>
   </si>
   <si>
-    <t>PREDICTED_INSULIN_TOTAL</t>
+    <t>TIR_IN_RANGE</t>
   </si>
   <si>
-    <t>Patient's weight</t>
+    <t>TIR_LOW</t>
   </si>
 </sst>
 </file>
@@ -459,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B333272-26F2-4F4E-A28B-8D654AFC17A0}">
-  <dimension ref="A1:N290"/>
+  <dimension ref="A1:M290"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -485,7 +482,7 @@
     <col min="16" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -493,28 +490,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>11</v>
@@ -523,13 +520,10 @@
         <v>12</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="20" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -541,7 +535,7 @@
       </c>
       <c r="D2" s="6">
         <f ca="1">RANDBETWEEN(130, 170) + RAND()*(0-0.999)+0.999</f>
-        <v>160.57692250662549</v>
+        <v>163.99024495217904</v>
       </c>
       <c r="E2" s="6">
         <v>0</v>
@@ -553,7 +547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -566,11 +560,11 @@
       </c>
       <c r="D3" s="6">
         <f ca="1">RANDBETWEEN(D2-9, D2+9) + RAND()*(-0.999)+0.999</f>
-        <v>152.05856459130783</v>
+        <v>156.7390784983306</v>
       </c>
       <c r="E3" s="6">
         <f ca="1">(D3-D2)/5</f>
-        <v>-1.7036715830635329</v>
+        <v>-1.4502332907696882</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -579,7 +573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -592,21 +586,21 @@
       </c>
       <c r="D4" s="6">
         <f t="shared" ref="D4" ca="1" si="1">RANDBETWEEN(D3-9, D3+9) + RAND()*(-0.999)+0.999</f>
-        <v>154.23748389929804</v>
+        <v>159.07975034614529</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" ref="E4" ca="1" si="2">(D4-D3)/5</f>
-        <v>0.43578386159804267</v>
+        <v>0.46813436956293797</v>
       </c>
       <c r="F4" s="6">
         <f ca="1">(E4-E3)/5</f>
-        <v>0.42789108893231509</v>
+        <v>0.38367353206652527</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -618,7 +612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -630,7 +624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -642,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -654,7 +648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -666,7 +660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>1</v>
       </c>
@@ -678,7 +672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>1</v>
       </c>
@@ -690,7 +684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>1</v>
       </c>
@@ -702,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>1</v>
       </c>
@@ -715,7 +709,7 @@
       </c>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>1</v>
       </c>
@@ -727,7 +721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>1</v>
       </c>
@@ -739,7 +733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>1</v>
       </c>

--- a/artificial_pancreas/db/diets/highCHO.xlsx
+++ b/artificial_pancreas/db/diets/highCHO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brooklyn/Documents/GITHUB/APS/APS/artificial_pancreas/db/diets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\APS\artificial_pancreas\db\diets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DFB441-E0B9-F040-A040-64CE0E8AA745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E30D543-6A3D-41ED-B17E-DF3D805B84AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15360" xr2:uid="{4B5383E1-92E3-4F49-82E4-F541FD6A9B93}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="23040" windowHeight="12120" xr2:uid="{4B5383E1-92E3-4F49-82E4-F541FD6A9B93}"/>
   </bookViews>
   <sheets>
     <sheet name="DIET student 3" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Day</t>
   </si>
@@ -64,24 +64,6 @@
   </si>
   <si>
     <t>INSULIN</t>
-  </si>
-  <si>
-    <t>AVG</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>GMI</t>
-  </si>
-  <si>
-    <t>TIR_HIGH</t>
-  </si>
-  <si>
-    <t>TIR_IN_RANGE</t>
-  </si>
-  <si>
-    <t>TIR_LOW</t>
   </si>
 </sst>
 </file>
@@ -133,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -142,6 +124,7 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,31 +441,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B333272-26F2-4F4E-A28B-8D654AFC17A0}">
   <dimension ref="A1:M290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:M1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="6"/>
-    <col min="2" max="2" width="11.83203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.796875" style="6"/>
+    <col min="2" max="2" width="11.796875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.296875" style="6" customWidth="1"/>
     <col min="4" max="4" width="24" style="6" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="29.83203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="6"/>
-    <col min="8" max="8" width="16.33203125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="30.33203125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="21.83203125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="24.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="22.796875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="29.796875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.796875" style="6"/>
+    <col min="8" max="8" width="16.296875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="18.69921875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="15.69921875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="30.296875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="21.796875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="24.296875" style="6" customWidth="1"/>
     <col min="14" max="14" width="18.5" style="6" customWidth="1"/>
     <col min="15" max="15" width="22" style="6" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="6"/>
+    <col min="16" max="16384" width="10.796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -504,26 +487,14 @@
       <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -535,7 +506,7 @@
       </c>
       <c r="D2" s="6">
         <f ca="1">RANDBETWEEN(130, 170) + RAND()*(0-0.999)+0.999</f>
-        <v>163.99024495217904</v>
+        <v>139.42036759666829</v>
       </c>
       <c r="E2" s="6">
         <v>0</v>
@@ -547,7 +518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -560,11 +531,11 @@
       </c>
       <c r="D3" s="6">
         <f ca="1">RANDBETWEEN(D2-9, D2+9) + RAND()*(-0.999)+0.999</f>
-        <v>156.7390784983306</v>
+        <v>135.08545075999263</v>
       </c>
       <c r="E3" s="6">
         <f ca="1">(D3-D2)/5</f>
-        <v>-1.4502332907696882</v>
+        <v>-0.86698336733513204</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -573,7 +544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -586,21 +557,21 @@
       </c>
       <c r="D4" s="6">
         <f t="shared" ref="D4" ca="1" si="1">RANDBETWEEN(D3-9, D3+9) + RAND()*(-0.999)+0.999</f>
-        <v>159.07975034614529</v>
+        <v>135.60908998390562</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" ref="E4" ca="1" si="2">(D4-D3)/5</f>
-        <v>0.46813436956293797</v>
+        <v>0.10472784478259882</v>
       </c>
       <c r="F4" s="6">
         <f ca="1">(E4-E3)/5</f>
-        <v>0.38367353206652527</v>
+        <v>0.19434224242354617</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -612,7 +583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -624,7 +595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -636,7 +607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -648,7 +619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -660,7 +631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>1</v>
       </c>
@@ -672,7 +643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>1</v>
       </c>
@@ -684,7 +655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>1</v>
       </c>
@@ -696,7 +667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>1</v>
       </c>
@@ -709,7 +680,7 @@
       </c>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>1</v>
       </c>
@@ -721,7 +692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>1</v>
       </c>
@@ -733,7 +704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>1</v>
       </c>
@@ -745,7 +716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>1</v>
       </c>
@@ -757,7 +728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>1</v>
       </c>
@@ -769,7 +740,7 @@
         <v>33.26</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>1</v>
       </c>
@@ -782,7 +753,7 @@
       </c>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>1</v>
       </c>
@@ -794,7 +765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>1</v>
       </c>
@@ -806,7 +777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>1</v>
       </c>
@@ -818,7 +789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>1</v>
       </c>
@@ -830,7 +801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>1</v>
       </c>
@@ -842,7 +813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>1</v>
       </c>
@@ -855,7 +826,7 @@
       </c>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>1</v>
       </c>
@@ -867,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>1</v>
       </c>
@@ -879,7 +850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>1</v>
       </c>
@@ -891,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>1</v>
       </c>
@@ -903,7 +874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>1</v>
       </c>
@@ -915,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>1</v>
       </c>
@@ -927,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>1</v>
       </c>
@@ -939,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>1</v>
       </c>
@@ -951,7 +922,7 @@
         <v>58.99</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>1</v>
       </c>
@@ -963,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>1</v>
       </c>
@@ -976,7 +947,7 @@
       </c>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>1</v>
       </c>
@@ -988,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>1</v>
       </c>
@@ -1000,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>1</v>
       </c>
@@ -1012,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <v>1</v>
       </c>
@@ -1024,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
         <v>1</v>
       </c>
@@ -1036,7 +1007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <v>1</v>
       </c>
@@ -1048,7 +1019,7 @@
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
         <v>1</v>
       </c>
@@ -1060,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
         <v>1</v>
       </c>
@@ -1072,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
         <v>1</v>
       </c>
@@ -1084,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="6">
         <v>1</v>
       </c>
@@ -1096,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="6">
         <v>1</v>
       </c>
@@ -1108,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="6">
         <v>1</v>
       </c>
@@ -1120,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="6">
         <v>1</v>
       </c>
@@ -1132,7 +1103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="6">
         <v>1</v>
       </c>
@@ -1144,7 +1115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="6">
         <v>1</v>
       </c>
@@ -1156,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="6">
         <v>1</v>
       </c>
@@ -1168,7 +1139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="6">
         <v>1</v>
       </c>
@@ -1180,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="6">
         <v>1</v>
       </c>
@@ -1192,7 +1163,7 @@
         <v>42.01</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="6">
         <v>1</v>
       </c>
@@ -1204,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="6">
         <v>1</v>
       </c>
@@ -1216,7 +1187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="6">
         <v>1</v>
       </c>
@@ -1228,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="6">
         <v>1</v>
       </c>
@@ -1240,7 +1211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="6">
         <v>1</v>
       </c>
@@ -1252,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="6">
         <v>1</v>
       </c>
@@ -1264,7 +1235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="6">
         <v>1</v>
       </c>
@@ -1276,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="6">
         <v>1</v>
       </c>
@@ -1288,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="6">
         <v>1</v>
       </c>
@@ -1300,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="6">
         <v>1</v>
       </c>
@@ -1312,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="6">
         <v>1</v>
       </c>
@@ -1324,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="6">
         <v>1</v>
       </c>
@@ -1336,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="6">
         <v>1</v>
       </c>
@@ -1348,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="6">
         <v>1</v>
       </c>
@@ -1360,7 +1331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="6">
         <v>1</v>
       </c>
@@ -1372,7 +1343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="6">
         <v>1</v>
       </c>
@@ -1384,7 +1355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="6">
         <v>1</v>
       </c>
@@ -1396,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="6">
         <v>1</v>
       </c>
@@ -1408,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="6">
         <v>1</v>
       </c>
@@ -1420,7 +1391,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="6">
         <v>1</v>
       </c>
@@ -1432,7 +1403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="6">
         <v>1</v>
       </c>
@@ -1444,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="6">
         <v>1</v>
       </c>
@@ -1456,7 +1427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="6">
         <v>1</v>
       </c>
@@ -1468,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="6">
         <v>1</v>
       </c>
@@ -1480,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="6">
         <v>1</v>
       </c>
@@ -1492,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="6">
         <v>1</v>
       </c>
@@ -1504,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="6">
         <v>1</v>
       </c>
@@ -1516,7 +1487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="6">
         <v>1</v>
       </c>
@@ -1528,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="6">
         <v>1</v>
       </c>
@@ -1540,7 +1511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="6">
         <v>1</v>
       </c>
@@ -1552,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="6">
         <v>1</v>
       </c>
@@ -1564,7 +1535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="6">
         <v>1</v>
       </c>
@@ -1576,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="6">
         <v>1</v>
       </c>
@@ -1588,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="6">
         <v>1</v>
       </c>
@@ -1600,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="6">
         <v>1</v>
       </c>
@@ -1612,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="6">
         <v>1</v>
       </c>
@@ -1624,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="6">
         <v>1</v>
       </c>
@@ -1636,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="6">
         <v>1</v>
       </c>
@@ -1648,7 +1619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="6">
         <v>1</v>
       </c>
@@ -1660,7 +1631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="6">
         <v>1</v>
       </c>
@@ -1672,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="6">
         <v>1</v>
       </c>
@@ -1684,7 +1655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="6">
         <v>1</v>
       </c>
@@ -1696,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="6">
         <v>1</v>
       </c>
@@ -1708,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="6">
         <v>1</v>
       </c>
@@ -1720,7 +1691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="6">
         <v>1</v>
       </c>
@@ -1732,7 +1703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="6">
         <v>1</v>
       </c>
@@ -1744,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="6">
         <v>1</v>
       </c>
@@ -1756,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="6">
         <v>1</v>
       </c>
@@ -1768,7 +1739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="6">
         <v>1</v>
       </c>
@@ -1780,7 +1751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="6">
         <v>1</v>
       </c>
@@ -1792,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="6">
         <v>1</v>
       </c>
@@ -1804,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="6">
         <v>1</v>
       </c>
@@ -1816,7 +1787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="6">
         <v>1</v>
       </c>
@@ -1828,7 +1799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="6">
         <v>1</v>
       </c>
@@ -1840,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="6">
         <v>1</v>
       </c>
@@ -1852,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="6">
         <v>1</v>
       </c>
@@ -1864,7 +1835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="6">
         <v>1</v>
       </c>
@@ -1876,7 +1847,7 @@
         <v>140.54</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="6">
         <v>1</v>
       </c>
@@ -1888,7 +1859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="6">
         <v>1</v>
       </c>
@@ -1900,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="6">
         <v>1</v>
       </c>
@@ -1912,7 +1883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="6">
         <v>1</v>
       </c>
@@ -1924,7 +1895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="6">
         <v>1</v>
       </c>
@@ -1936,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="6">
         <v>1</v>
       </c>
@@ -1948,7 +1919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="6">
         <v>1</v>
       </c>
@@ -1960,7 +1931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="6">
         <v>1</v>
       </c>
@@ -1972,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="6">
         <v>1</v>
       </c>
@@ -1984,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="6">
         <v>1</v>
       </c>
@@ -1996,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="6">
         <v>1</v>
       </c>
@@ -2008,7 +1979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="6">
         <v>1</v>
       </c>
@@ -2020,7 +1991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="6">
         <v>1</v>
       </c>
@@ -2032,7 +2003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="6">
         <v>1</v>
       </c>
@@ -2044,7 +2015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="6">
         <v>1</v>
       </c>
@@ -2056,7 +2027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="6">
         <v>1</v>
       </c>
@@ -2068,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="6">
         <v>1</v>
       </c>
@@ -2080,7 +2051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="6">
         <v>1</v>
       </c>
@@ -2092,7 +2063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="6">
         <v>1</v>
       </c>
@@ -2104,7 +2075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="6">
         <v>1</v>
       </c>
@@ -2116,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="6">
         <v>1</v>
       </c>
@@ -2128,7 +2099,7 @@
         <v>56.99</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="6">
         <v>1</v>
       </c>
@@ -2140,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="6">
         <v>1</v>
       </c>
@@ -2152,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="6">
         <v>1</v>
       </c>
@@ -2164,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="6">
         <v>1</v>
       </c>
@@ -2176,7 +2147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="6">
         <v>1</v>
       </c>
@@ -2188,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="6">
         <v>1</v>
       </c>
@@ -2200,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="6">
         <v>1</v>
       </c>
@@ -2212,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="6">
         <v>1</v>
       </c>
@@ -2224,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="6">
         <v>1</v>
       </c>
@@ -2236,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="6">
         <v>1</v>
       </c>
@@ -2248,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="6">
         <v>1</v>
       </c>
@@ -2260,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="6">
         <v>1</v>
       </c>
@@ -2272,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="6">
         <v>1</v>
       </c>
@@ -2284,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="6">
         <v>1</v>
       </c>
@@ -2296,7 +2267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="6">
         <v>1</v>
       </c>
@@ -2308,7 +2279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="6">
         <v>1</v>
       </c>
@@ -2320,7 +2291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="6">
         <v>1</v>
       </c>
@@ -2332,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="6">
         <v>1</v>
       </c>
@@ -2344,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="6">
         <v>1</v>
       </c>
@@ -2356,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="6">
         <v>1</v>
       </c>
@@ -2368,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="6">
         <v>1</v>
       </c>
@@ -2380,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="6">
         <v>1</v>
       </c>
@@ -2392,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="6">
         <v>1</v>
       </c>
@@ -2404,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="6">
         <v>1</v>
       </c>
@@ -2416,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="6">
         <v>1</v>
       </c>
@@ -2428,7 +2399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="6">
         <v>1</v>
       </c>
@@ -2440,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="6">
         <v>1</v>
       </c>
@@ -2452,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="6">
         <v>1</v>
       </c>
@@ -2464,7 +2435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="6">
         <v>1</v>
       </c>
@@ -2476,7 +2447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="6">
         <v>1</v>
       </c>
@@ -2488,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="6">
         <v>1</v>
       </c>
@@ -2500,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="6">
         <v>1</v>
       </c>
@@ -2512,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="6">
         <v>1</v>
       </c>
@@ -2524,7 +2495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" s="6">
         <v>1</v>
       </c>
@@ -2536,7 +2507,7 @@
         <v>78.44</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" s="6">
         <v>1</v>
       </c>
@@ -2548,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" s="6">
         <v>1</v>
       </c>
@@ -2560,7 +2531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" s="6">
         <v>1</v>
       </c>
@@ -2572,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="6">
         <v>1</v>
       </c>
@@ -2584,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" s="6">
         <v>1</v>
       </c>
@@ -2596,7 +2567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="6">
         <v>1</v>
       </c>
@@ -2608,7 +2579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="6">
         <v>1</v>
       </c>
@@ -2620,7 +2591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" s="6">
         <v>1</v>
       </c>
@@ -2632,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" s="6">
         <v>1</v>
       </c>
@@ -2644,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="6">
         <v>1</v>
       </c>
@@ -2656,7 +2627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="6">
         <v>1</v>
       </c>
@@ -2668,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="6">
         <v>1</v>
       </c>
@@ -2680,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="6">
         <v>1</v>
       </c>
@@ -2692,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="6">
         <v>1</v>
       </c>
@@ -2704,7 +2675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="6">
         <v>1</v>
       </c>
@@ -2716,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="6">
         <v>1</v>
       </c>
@@ -2729,7 +2700,7 @@
         <v>94.7</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" s="6">
         <v>1</v>
       </c>
@@ -2741,7 +2712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="6">
         <v>1</v>
       </c>
@@ -2753,7 +2724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="6">
         <v>1</v>
       </c>
@@ -2765,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="6">
         <v>1</v>
       </c>
@@ -2777,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="6">
         <v>1</v>
       </c>
@@ -2789,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="6">
         <v>1</v>
       </c>
@@ -2801,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="6">
         <v>1</v>
       </c>
@@ -2813,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="6">
         <v>1</v>
       </c>
@@ -2825,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="6">
         <v>1</v>
       </c>
@@ -2837,7 +2808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="6">
         <v>1</v>
       </c>
@@ -2849,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="6">
         <v>1</v>
       </c>
@@ -2861,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="6">
         <v>1</v>
       </c>
@@ -2873,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="6">
         <v>1</v>
       </c>
@@ -2885,7 +2856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="6">
         <v>1</v>
       </c>
@@ -2897,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="6">
         <v>1</v>
       </c>
@@ -2909,7 +2880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="6">
         <v>1</v>
       </c>
@@ -2921,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="6">
         <v>1</v>
       </c>
@@ -2933,7 +2904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="6">
         <v>1</v>
       </c>
@@ -2945,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="6">
         <v>1</v>
       </c>
@@ -2957,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="6">
         <v>1</v>
       </c>
@@ -2969,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="6">
         <v>1</v>
       </c>
@@ -2981,7 +2952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="6">
         <v>1</v>
       </c>
@@ -2993,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="6">
         <v>1</v>
       </c>
@@ -3005,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="6">
         <v>1</v>
       </c>
@@ -3017,7 +2988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="6">
         <v>1</v>
       </c>
@@ -3029,7 +3000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="6">
         <v>1</v>
       </c>
@@ -3041,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="6">
         <v>1</v>
       </c>
@@ -3053,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="6">
         <v>1</v>
       </c>
@@ -3065,7 +3036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="6">
         <v>1</v>
       </c>
@@ -3077,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="6">
         <v>1</v>
       </c>
@@ -3089,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="6">
         <v>1</v>
       </c>
@@ -3101,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="6">
         <v>1</v>
       </c>
@@ -3113,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="6">
         <v>1</v>
       </c>
@@ -3125,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="6">
         <v>1</v>
       </c>
@@ -3137,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="6">
         <v>1</v>
       </c>
@@ -3149,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="6">
         <v>1</v>
       </c>
@@ -3161,7 +3132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="6">
         <v>1</v>
       </c>
@@ -3173,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="6">
         <v>1</v>
       </c>
@@ -3185,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="6">
         <v>1</v>
       </c>
@@ -3197,7 +3168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="6">
         <v>1</v>
       </c>
@@ -3209,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="6">
         <v>1</v>
       </c>
@@ -3221,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="6">
         <v>1</v>
       </c>
@@ -3233,7 +3204,7 @@
         <v>110.123</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="6">
         <v>1</v>
       </c>
@@ -3245,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="6">
         <v>1</v>
       </c>
@@ -3257,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="6">
         <v>1</v>
       </c>
@@ -3269,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="6">
         <v>1</v>
       </c>
@@ -3281,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="6">
         <v>1</v>
       </c>
@@ -3293,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="6">
         <v>1</v>
       </c>
@@ -3305,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="6">
         <v>1</v>
       </c>
@@ -3317,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="6">
         <v>1</v>
       </c>
@@ -3329,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="6">
         <v>1</v>
       </c>
@@ -3341,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="6">
         <v>1</v>
       </c>
@@ -3353,7 +3324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="6">
         <v>1</v>
       </c>
@@ -3365,7 +3336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="6">
         <v>1</v>
       </c>
@@ -3377,7 +3348,7 @@
         <v>50.2</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="6">
         <v>1</v>
       </c>
@@ -3389,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="6">
         <v>1</v>
       </c>
@@ -3401,7 +3372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="6">
         <v>1</v>
       </c>
@@ -3413,7 +3384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="6">
         <v>1</v>
       </c>
@@ -3425,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="6">
         <v>1</v>
       </c>
@@ -3437,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="6">
         <v>1</v>
       </c>
@@ -3449,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="6">
         <v>1</v>
       </c>
@@ -3461,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="6">
         <v>1</v>
       </c>
@@ -3473,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="6">
         <v>1</v>
       </c>
@@ -3485,7 +3456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="6">
         <v>1</v>
       </c>
@@ -3497,7 +3468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="6">
         <v>1</v>
       </c>
@@ -3509,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" s="6">
         <v>1</v>
       </c>
@@ -3521,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" s="6">
         <v>1</v>
       </c>
@@ -3533,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" s="6">
         <v>1</v>
       </c>
@@ -3545,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" s="6">
         <v>1</v>
       </c>
@@ -3557,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" s="6">
         <v>1</v>
       </c>
@@ -3569,7 +3540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" s="6">
         <v>1</v>
       </c>
@@ -3581,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" s="6">
         <v>1</v>
       </c>
@@ -3593,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" s="6">
         <v>1</v>
       </c>
@@ -3605,7 +3576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" s="6">
         <v>1</v>
       </c>
@@ -3617,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" s="6">
         <v>1</v>
       </c>
@@ -3629,7 +3600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" s="6">
         <v>1</v>
       </c>
@@ -3641,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" s="6">
         <v>1</v>
       </c>
@@ -3653,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" s="6">
         <v>1</v>
       </c>
@@ -3665,7 +3636,7 @@
         <v>150.66999999999999</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" s="6">
         <v>1</v>
       </c>
@@ -3677,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" s="6">
         <v>1</v>
       </c>
@@ -3689,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" s="6">
         <v>1</v>
       </c>
@@ -3701,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" s="6">
         <v>1</v>
       </c>
@@ -3713,7 +3684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" s="6">
         <v>1</v>
       </c>
@@ -3725,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" s="6">
         <v>1</v>
       </c>
@@ -3737,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" s="6">
         <v>1</v>
       </c>
@@ -3749,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" s="6">
         <v>1</v>
       </c>
@@ -3761,7 +3732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" s="6">
         <v>1</v>
       </c>
@@ -3773,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" s="6">
         <v>1</v>
       </c>
@@ -3785,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" s="6">
         <v>1</v>
       </c>
@@ -3797,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" s="6">
         <v>1</v>
       </c>
@@ -3809,7 +3780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" s="6">
         <v>1</v>
       </c>
@@ -3821,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" s="6">
         <v>1</v>
       </c>
@@ -3833,7 +3804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" s="6">
         <v>1</v>
       </c>
@@ -3845,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" s="6">
         <v>1</v>
       </c>
@@ -3857,7 +3828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" s="6">
         <v>1</v>
       </c>
@@ -3869,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" s="6">
         <v>1</v>
       </c>
@@ -3881,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" s="6">
         <v>1</v>
       </c>
@@ -3893,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" s="6">
         <v>1</v>
       </c>
@@ -3905,7 +3876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" s="6">
         <v>1</v>
       </c>
@@ -3917,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" s="6">
         <v>1</v>
       </c>
@@ -3929,7 +3900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" s="6">
         <v>1</v>
       </c>
@@ -3941,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" s="6">
         <v>1</v>
       </c>
@@ -3953,7 +3924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" s="6">
         <v>1</v>
       </c>
@@ -3965,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" s="6">
         <v>1</v>
       </c>
@@ -3977,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" s="6">
         <v>1</v>
       </c>
@@ -3989,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" s="6">
         <v>1</v>
       </c>
@@ -4001,7 +3972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" s="6">
         <v>1</v>
       </c>
@@ -4013,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289" s="6">
         <v>1</v>
       </c>
@@ -4025,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" s="6">
         <v>1</v>
       </c>
@@ -4051,9 +4022,9 @@
       <selection activeCell="C15" sqref="C15:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>2</v>
       </c>
@@ -4068,7 +4039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -4083,7 +4054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4098,7 +4069,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4113,7 +4084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4128,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -4143,7 +4114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -4158,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -4173,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -4188,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -4203,7 +4174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -4218,7 +4189,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -4233,7 +4204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -4248,7 +4219,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -4263,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -4278,7 +4249,7 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -4293,7 +4264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -4308,7 +4279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -4323,7 +4294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -4338,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -4353,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -4368,7 +4339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -4385,7 +4356,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -4400,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -4418,7 +4389,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
@@ -4433,7 +4404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
@@ -4448,7 +4419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -4463,7 +4434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
@@ -4478,7 +4449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3</v>
       </c>
@@ -4493,7 +4464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -4508,7 +4479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -4523,7 +4494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -4538,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3</v>
       </c>
@@ -4553,7 +4524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -4568,7 +4539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
@@ -4583,7 +4554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
@@ -4598,7 +4569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3</v>
       </c>
@@ -4613,7 +4584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -4628,7 +4599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
@@ -4643,7 +4614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
@@ -4658,7 +4629,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3</v>
       </c>
@@ -4673,7 +4644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3</v>
       </c>
@@ -4690,7 +4661,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3</v>
       </c>
@@ -4705,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
@@ -4720,7 +4691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>3</v>
       </c>
@@ -4735,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -4750,7 +4721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>3</v>
       </c>
@@ -4765,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>3</v>
       </c>
@@ -4783,7 +4754,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>4</v>
       </c>
@@ -4798,7 +4769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>4</v>
       </c>
@@ -4813,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>4</v>
       </c>
@@ -4828,7 +4799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>4</v>
       </c>
@@ -4843,7 +4814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>4</v>
       </c>
@@ -4858,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>4</v>
       </c>
@@ -4873,7 +4844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>4</v>
       </c>
@@ -4888,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>4</v>
       </c>
@@ -4903,7 +4874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>4</v>
       </c>
@@ -4918,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>4</v>
       </c>
@@ -4933,7 +4904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>4</v>
       </c>
@@ -4948,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>4</v>
       </c>
@@ -4963,7 +4934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>4</v>
       </c>
@@ -4978,7 +4949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>4</v>
       </c>
@@ -4993,7 +4964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>4</v>
       </c>
@@ -5008,7 +4979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>4</v>
       </c>
@@ -5023,7 +4994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>4</v>
       </c>
@@ -5038,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>4</v>
       </c>
@@ -5055,7 +5026,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>4</v>
       </c>
@@ -5070,7 +5041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>4</v>
       </c>
@@ -5085,7 +5056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>4</v>
       </c>
@@ -5100,7 +5071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>4</v>
       </c>
@@ -5115,7 +5086,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>4</v>
       </c>
@@ -5130,7 +5101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>4</v>
       </c>
@@ -5148,7 +5119,7 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>5</v>
       </c>
@@ -5163,7 +5134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>5</v>
       </c>
@@ -5178,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>5</v>
       </c>
@@ -5193,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>5</v>
       </c>
@@ -5208,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>5</v>
       </c>
@@ -5223,7 +5194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>5</v>
       </c>
@@ -5238,7 +5209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>5</v>
       </c>
@@ -5253,7 +5224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>5</v>
       </c>
@@ -5268,7 +5239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>5</v>
       </c>
@@ -5283,7 +5254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>5</v>
       </c>
@@ -5298,7 +5269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>5</v>
       </c>
@@ -5313,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>5</v>
       </c>
@@ -5328,7 +5299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>5</v>
       </c>
@@ -5343,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>5</v>
       </c>
@@ -5358,7 +5329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>5</v>
       </c>
@@ -5373,7 +5344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>5</v>
       </c>
@@ -5390,7 +5361,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>5</v>
       </c>
@@ -5405,7 +5376,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>5</v>
       </c>
@@ -5420,7 +5391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>5</v>
       </c>
@@ -5437,7 +5408,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>5</v>
       </c>
@@ -5452,7 +5423,7 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>5</v>
       </c>
@@ -5467,7 +5438,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>5</v>
       </c>
@@ -5482,7 +5453,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>5</v>
       </c>
@@ -5497,7 +5468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>5</v>
       </c>
@@ -5515,7 +5486,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>6</v>
       </c>
@@ -5530,7 +5501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>6</v>
       </c>
@@ -5545,7 +5516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>6</v>
       </c>
@@ -5560,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>6</v>
       </c>
@@ -5575,7 +5546,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>6</v>
       </c>
@@ -5590,7 +5561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>6</v>
       </c>
@@ -5605,7 +5576,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>6</v>
       </c>
@@ -5620,7 +5591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>6</v>
       </c>
@@ -5635,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>6</v>
       </c>
@@ -5650,7 +5621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>6</v>
       </c>
@@ -5665,7 +5636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>6</v>
       </c>
@@ -5680,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>6</v>
       </c>
@@ -5695,7 +5666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>6</v>
       </c>
@@ -5710,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>6</v>
       </c>
@@ -5725,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>6</v>
       </c>
@@ -5740,7 +5711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>6</v>
       </c>
@@ -5755,7 +5726,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>6</v>
       </c>
@@ -5770,7 +5741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>6</v>
       </c>
@@ -5785,7 +5756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>6</v>
       </c>
@@ -5800,7 +5771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>6</v>
       </c>
@@ -5815,7 +5786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>6</v>
       </c>
@@ -5830,7 +5801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>6</v>
       </c>
@@ -5845,7 +5816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>6</v>
       </c>
@@ -5860,7 +5831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>6</v>
       </c>
@@ -5878,7 +5849,7 @@
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="121" spans="1:7" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
